--- a/data/trans_bre/P16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,85%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,6; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,72; 15,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 10,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 17,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,78; 219,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,46; 167,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,99; 109,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,14; 251,52</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,25%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 9,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 14,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,51; 11,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 8,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,87; 125,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,28; 112,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,77; 82,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,17; 61,89</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,04</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,76%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 11,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,8; 20,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 10,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 16,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,3; 97,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,82; 167,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,83; 68,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,94; 106,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 13,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,36; 20,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 14,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 20,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,27; 113,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,41; 138,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,12; 85,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,11; 103,17</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,35%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 12,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,9; 19,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,14; 23,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,02; 19,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 66,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,23; 103,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,05; 122,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,5; 71,15</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,85</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,02</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,62</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,41%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,25; 21,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,28; 26,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,54; 27,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,63; 41,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,07; 120,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,84; 103,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,2; 125,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>74,54; 133,72</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,19%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,95; 11,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,39; 17,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,18; 14,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,41; 22,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,29; 88,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,9; 104,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,61; 81,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,31; 98,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>8,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>72,64%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 17,48</t>
+          <t>0,48; 17,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 251,52</t>
+          <t>2,05; 236,23</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 8,82</t>
+          <t>-8,13; 7,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 61,89</t>
+          <t>-37,18; 45,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,04</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>62,9%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 16,71</t>
+          <t>7,09; 16,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,94; 106,1</t>
+          <t>32,8; 103,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,24</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>99,38%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 20,24</t>
+          <t>9,48; 30,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,11; 103,17</t>
+          <t>35,7; 306,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>14,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>46,67%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,48</t>
+          <t>9,64; 19,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,5; 71,15</t>
+          <t>29,01; 68,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,3</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,85</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,02</t>
+          <t>25,2</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,62</t>
+          <t>41,16</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,81%</t>
+          <t>94,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>72,53%</t>
+          <t>71,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>141,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>149,64%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,25; 21,58</t>
+          <t>9,3; 21,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,28; 26,08</t>
+          <t>12,05; 26,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,54; 27,09</t>
+          <t>17,96; 31,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 41,88</t>
+          <t>23,64; 61,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,07; 120,37</t>
+          <t>46,55; 160,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,84; 103,33</t>
+          <t>36,7; 114,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,2; 125,95</t>
+          <t>86,16; 224,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>74,54; 133,72</t>
+          <t>82,06; 257,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,61</t>
+          <t>21,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,31</t>
+          <t>26,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>73,19%</t>
+          <t>67,1%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,6; 23,13</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 29,05</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 24,14</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21,27; 32,71</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24,75; 105,44</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 112,45</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22,71; 83,28</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>48,0; 91,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,95</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,61</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12,23</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19,49</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>71,54%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>87,36%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>64,83%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>86,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>7,95; 11,55</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>13,39; 17,47</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>10,18; 14,43</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,41; 22,59</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 29,9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>54,29; 88,99</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>71,9; 104,75</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>51,61; 81,53</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>58,31; 98,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>58,76; 153,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A02-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,6; 13,42</t>
+          <t>5,49; 14,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 15,89</t>
+          <t>5,59; 15,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 10,23</t>
+          <t>0,66; 10,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 17,11</t>
+          <t>-1,21; 15,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,78; 219,43</t>
+          <t>52,46; 224,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,46; 167,55</t>
+          <t>36,78; 153,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 109,24</t>
+          <t>4,56; 117,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 236,23</t>
+          <t>-7,98; 223,23</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,72</t>
+          <t>2,6; 9,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,2</t>
+          <t>4,3; 13,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,6</t>
+          <t>2,09; 11,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 7,07</t>
+          <t>-9,26; 7,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,87; 125,49</t>
+          <t>23,85; 126,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,28; 112,53</t>
+          <t>28,03; 109,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,77; 82,46</t>
+          <t>11,01; 76,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,18; 45,27</t>
+          <t>-37,71; 46,72</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 11,4</t>
+          <t>3,01; 11,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 20,73</t>
+          <t>11,83; 20,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,49</t>
+          <t>1,91; 11,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 16,57</t>
+          <t>7,02; 17,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,3; 97,45</t>
+          <t>19,5; 93,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,82; 167,73</t>
+          <t>70,92; 169,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,83; 68,56</t>
+          <t>9,17; 76,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,8; 103,44</t>
+          <t>31,35; 106,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 13,99</t>
+          <t>3,95; 13,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,37</t>
+          <t>10,47; 20,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 14,78</t>
+          <t>4,92; 14,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 30,53</t>
+          <t>9,78; 30,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,27; 113,5</t>
+          <t>22,08; 104,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,41; 138,02</t>
+          <t>53,79; 141,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,12; 85,31</t>
+          <t>22,64; 84,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,7; 306,02</t>
+          <t>37,73; 378,83</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 12,89</t>
+          <t>0,13; 12,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,9; 19,92</t>
+          <t>7,32; 20,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 23,63</t>
+          <t>10,94; 23,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,64; 19,15</t>
+          <t>9,54; 19,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 66,52</t>
+          <t>0,28; 64,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,23; 103,53</t>
+          <t>29,27; 107,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,05; 122,84</t>
+          <t>41,71; 118,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 68,62</t>
+          <t>28,3; 69,2</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,3; 21,99</t>
+          <t>9,62; 22,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 26,0</t>
+          <t>10,66; 26,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,96; 31,92</t>
+          <t>18,76; 31,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,64; 61,25</t>
+          <t>23,48; 60,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,55; 160,89</t>
+          <t>49,97; 170,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,7; 114,02</t>
+          <t>33,81; 115,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>86,16; 224,31</t>
+          <t>86,22; 217,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,06; 257,48</t>
+          <t>82,4; 252,41</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 23,13</t>
+          <t>7,28; 23,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,48; 29,05</t>
+          <t>13,32; 29,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 24,14</t>
+          <t>9,28; 24,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,27; 32,71</t>
+          <t>21,08; 32,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,75; 105,44</t>
+          <t>22,31; 106,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>37,04; 112,45</t>
+          <t>35,8; 112,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,71; 83,28</t>
+          <t>26,13; 89,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,0; 91,76</t>
+          <t>47,07; 89,98</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,55</t>
+          <t>8,06; 11,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 17,47</t>
+          <t>13,31; 17,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,43</t>
+          <t>10,1; 14,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,27; 29,9</t>
+          <t>14,55; 31,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>54,29; 88,99</t>
+          <t>54,56; 92,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,9; 104,75</t>
+          <t>70,06; 106,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,61; 81,53</t>
+          <t>51,19; 80,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58,76; 153,96</t>
+          <t>60,43; 160,11</t>
         </is>
       </c>
     </row>
